--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>148.9466983333333</v>
+        <v>231.1867016666667</v>
       </c>
       <c r="H2">
-        <v>446.840095</v>
+        <v>693.560105</v>
       </c>
       <c r="I2">
-        <v>0.5255511750002251</v>
+        <v>0.5918542142967572</v>
       </c>
       <c r="J2">
-        <v>0.5255511750002253</v>
+        <v>0.5918542142967572</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N2">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O2">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P2">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q2">
-        <v>25265.74473023887</v>
+        <v>48378.67710324962</v>
       </c>
       <c r="R2">
-        <v>227391.7025721498</v>
+        <v>435408.0939292465</v>
       </c>
       <c r="S2">
-        <v>0.3903992427549104</v>
+        <v>0.4810092240398918</v>
       </c>
       <c r="T2">
-        <v>0.3903992427549107</v>
+        <v>0.4810092240398918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>148.9466983333333</v>
+        <v>231.1867016666667</v>
       </c>
       <c r="H3">
-        <v>446.840095</v>
+        <v>693.560105</v>
       </c>
       <c r="I3">
-        <v>0.5255511750002251</v>
+        <v>0.5918542142967572</v>
       </c>
       <c r="J3">
-        <v>0.5255511750002253</v>
+        <v>0.5918542142967572</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q3">
-        <v>146.6939788188405</v>
+        <v>227.6901569284261</v>
       </c>
       <c r="R3">
-        <v>1320.245809369565</v>
+        <v>2049.211412355835</v>
       </c>
       <c r="S3">
-        <v>0.002266674458205799</v>
+        <v>0.002263829279000828</v>
       </c>
       <c r="T3">
-        <v>0.0022666744582058</v>
+        <v>0.002263829279000828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>148.9466983333333</v>
+        <v>231.1867016666667</v>
       </c>
       <c r="H4">
-        <v>446.840095</v>
+        <v>693.560105</v>
       </c>
       <c r="I4">
-        <v>0.5255511750002251</v>
+        <v>0.5918542142967572</v>
       </c>
       <c r="J4">
-        <v>0.5255511750002253</v>
+        <v>0.5918542142967572</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N4">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q4">
-        <v>464.4488219214639</v>
+        <v>407.7778931124111</v>
       </c>
       <c r="R4">
-        <v>4180.039397293175</v>
+        <v>3670.0010380117</v>
       </c>
       <c r="S4">
-        <v>0.007176533694632778</v>
+        <v>0.004054367330632272</v>
       </c>
       <c r="T4">
-        <v>0.007176533694632781</v>
+        <v>0.004054367330632272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>148.9466983333333</v>
+        <v>231.1867016666667</v>
       </c>
       <c r="H5">
-        <v>446.840095</v>
+        <v>693.560105</v>
       </c>
       <c r="I5">
-        <v>0.5255511750002251</v>
+        <v>0.5918542142967572</v>
       </c>
       <c r="J5">
-        <v>0.5255511750002253</v>
+        <v>0.5918542142967572</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N5">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q5">
-        <v>8135.580670883814</v>
+        <v>10513.03747571808</v>
       </c>
       <c r="R5">
-        <v>73220.22603795433</v>
+        <v>94617.33728146275</v>
       </c>
       <c r="S5">
-        <v>0.125708724092476</v>
+        <v>0.1045267936472324</v>
       </c>
       <c r="T5">
-        <v>0.125708724092476</v>
+        <v>0.1045267936472324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>310.970314</v>
       </c>
       <c r="I6">
-        <v>0.3657478720948015</v>
+        <v>0.2653686241974456</v>
       </c>
       <c r="J6">
-        <v>0.3657478720948015</v>
+        <v>0.2653686241974456</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N6">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O6">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P6">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q6">
-        <v>17583.23986616784</v>
+        <v>21691.4616357614</v>
       </c>
       <c r="R6">
-        <v>158249.1587955106</v>
+        <v>195223.1547218526</v>
       </c>
       <c r="S6">
-        <v>0.2716913196987319</v>
+        <v>0.2156692525395207</v>
       </c>
       <c r="T6">
-        <v>0.271691319698732</v>
+        <v>0.2156692525395207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>310.970314</v>
       </c>
       <c r="I7">
-        <v>0.3657478720948015</v>
+        <v>0.2653686241974456</v>
       </c>
       <c r="J7">
-        <v>0.3657478720948015</v>
+        <v>0.2653686241974456</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q7">
         <v>102.0890317714309</v>
       </c>
       <c r="R7">
-        <v>918.8012859428777</v>
+        <v>918.8012859428782</v>
       </c>
       <c r="S7">
-        <v>0.001577451253572125</v>
+        <v>0.001015029118108345</v>
       </c>
       <c r="T7">
-        <v>0.001577451253572125</v>
+        <v>0.001015029118108345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>310.970314</v>
       </c>
       <c r="I8">
-        <v>0.3657478720948015</v>
+        <v>0.2653686241974456</v>
       </c>
       <c r="J8">
-        <v>0.3657478720948015</v>
+        <v>0.2653686241974456</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N8">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q8">
-        <v>323.2247902683122</v>
+        <v>182.8346505937289</v>
       </c>
       <c r="R8">
-        <v>2909.02311241481</v>
+        <v>1645.51185534356</v>
       </c>
       <c r="S8">
-        <v>0.004994379334852516</v>
+        <v>0.001817849488153676</v>
       </c>
       <c r="T8">
-        <v>0.004994379334852517</v>
+        <v>0.001817849488153676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>310.970314</v>
       </c>
       <c r="I9">
-        <v>0.3657478720948015</v>
+        <v>0.2653686241974456</v>
       </c>
       <c r="J9">
-        <v>0.3657478720948015</v>
+        <v>0.2653686241974456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N9">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q9">
-        <v>5661.810800118709</v>
+        <v>4713.711964326178</v>
       </c>
       <c r="R9">
-        <v>50956.29720106838</v>
+        <v>42423.4076789356</v>
       </c>
       <c r="S9">
-        <v>0.08748472180764492</v>
+        <v>0.04686649305166285</v>
       </c>
       <c r="T9">
-        <v>0.08748472180764494</v>
+        <v>0.04686649305166285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.71902933333333</v>
+        <v>54.625754</v>
       </c>
       <c r="H10">
-        <v>89.15708799999999</v>
+        <v>163.877262</v>
       </c>
       <c r="I10">
-        <v>0.1048621484112755</v>
+        <v>0.1398457717548702</v>
       </c>
       <c r="J10">
-        <v>0.1048621484112756</v>
+        <v>0.1398457717548702</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N10">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O10">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P10">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q10">
-        <v>5041.222243718847</v>
+        <v>11431.11474507698</v>
       </c>
       <c r="R10">
-        <v>45371.00019346963</v>
+        <v>102880.0327056928</v>
       </c>
       <c r="S10">
-        <v>0.07789556047210336</v>
+        <v>0.1136548571120625</v>
       </c>
       <c r="T10">
-        <v>0.0778955604721034</v>
+        <v>0.1136548571120624</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.71902933333333</v>
+        <v>54.625754</v>
       </c>
       <c r="H11">
-        <v>89.15708799999999</v>
+        <v>163.877262</v>
       </c>
       <c r="I11">
-        <v>0.1048621484112755</v>
+        <v>0.1398457717548702</v>
       </c>
       <c r="J11">
-        <v>0.1048621484112756</v>
+        <v>0.1398457717548702</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q11">
-        <v>29.26954882735288</v>
+        <v>53.79957588791934</v>
       </c>
       <c r="R11">
-        <v>263.4259394461759</v>
+        <v>484.196182991274</v>
       </c>
       <c r="S11">
-        <v>0.0004522649072877105</v>
+        <v>0.0005349069838411334</v>
       </c>
       <c r="T11">
-        <v>0.0004522649072877106</v>
+        <v>0.0005349069838411333</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.71902933333333</v>
+        <v>54.625754</v>
       </c>
       <c r="H12">
-        <v>89.15708799999999</v>
+        <v>163.877262</v>
       </c>
       <c r="I12">
-        <v>0.1048621484112755</v>
+        <v>0.1398457717548702</v>
       </c>
       <c r="J12">
-        <v>0.1048621484112756</v>
+        <v>0.1398457717548702</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N12">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q12">
-        <v>92.67052117950222</v>
+        <v>96.35145410705333</v>
       </c>
       <c r="R12">
-        <v>834.0346906155199</v>
+        <v>867.1630869634799</v>
       </c>
       <c r="S12">
-        <v>0.001431919054057447</v>
+        <v>0.0009579827508767471</v>
       </c>
       <c r="T12">
-        <v>0.001431919054057447</v>
+        <v>0.0009579827508767469</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.71902933333333</v>
+        <v>54.625754</v>
       </c>
       <c r="H13">
-        <v>89.15708799999999</v>
+        <v>163.877262</v>
       </c>
       <c r="I13">
-        <v>0.1048621484112755</v>
+        <v>0.1398457717548702</v>
       </c>
       <c r="J13">
-        <v>0.1048621484112756</v>
+        <v>0.1398457717548702</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N13">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q13">
-        <v>1623.275730896725</v>
+        <v>2484.064155945174</v>
       </c>
       <c r="R13">
-        <v>14609.48157807053</v>
+        <v>22356.57740350656</v>
       </c>
       <c r="S13">
-        <v>0.02508240397782702</v>
+        <v>0.02469802490808988</v>
       </c>
       <c r="T13">
-        <v>0.02508240397782702</v>
+        <v>0.02469802490808988</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.087957333333333</v>
+        <v>1.145042666666667</v>
       </c>
       <c r="H14">
-        <v>3.263872</v>
+        <v>3.435128</v>
       </c>
       <c r="I14">
-        <v>0.003838804493697762</v>
+        <v>0.002931389750926909</v>
       </c>
       <c r="J14">
-        <v>0.003838804493697763</v>
+        <v>0.002931389750926909</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N14">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O14">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P14">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q14">
-        <v>184.549591021312</v>
+        <v>239.6143421777867</v>
       </c>
       <c r="R14">
-        <v>1660.946319191808</v>
+        <v>2156.52907960008</v>
       </c>
       <c r="S14">
-        <v>0.00285160882272428</v>
+        <v>0.002382386532682276</v>
       </c>
       <c r="T14">
-        <v>0.002851608822724281</v>
+        <v>0.002382386532682276</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.087957333333333</v>
+        <v>1.145042666666667</v>
       </c>
       <c r="H15">
-        <v>3.263872</v>
+        <v>3.435128</v>
       </c>
       <c r="I15">
-        <v>0.003838804493697762</v>
+        <v>0.002931389750926909</v>
       </c>
       <c r="J15">
-        <v>0.003838804493697763</v>
+        <v>0.002931389750926909</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N15">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O15">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P15">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q15">
-        <v>1.071502703971555</v>
+        <v>1.127724659695111</v>
       </c>
       <c r="R15">
-        <v>9.643524335743999</v>
+        <v>10.149521937256</v>
       </c>
       <c r="S15">
-        <v>1.655656101597839E-05</v>
+        <v>1.121250096055562E-05</v>
       </c>
       <c r="T15">
-        <v>1.655656101597839E-05</v>
+        <v>1.121250096055562E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.087957333333333</v>
+        <v>1.145042666666667</v>
       </c>
       <c r="H16">
-        <v>3.263872</v>
+        <v>3.435128</v>
       </c>
       <c r="I16">
-        <v>0.003838804493697762</v>
+        <v>0.002931389750926909</v>
       </c>
       <c r="J16">
-        <v>0.003838804493697763</v>
+        <v>0.002931389750926909</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N16">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O16">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P16">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q16">
-        <v>3.39249212920889</v>
+        <v>2.019679690791111</v>
       </c>
       <c r="R16">
-        <v>30.53242916288</v>
+        <v>18.17711721712</v>
       </c>
       <c r="S16">
-        <v>5.241984245609938E-05</v>
+        <v>2.008084178910518E-05</v>
       </c>
       <c r="T16">
-        <v>5.241984245609938E-05</v>
+        <v>2.008084178910518E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.087957333333333</v>
+        <v>1.145042666666667</v>
       </c>
       <c r="H17">
-        <v>3.263872</v>
+        <v>3.435128</v>
       </c>
       <c r="I17">
-        <v>0.003838804493697762</v>
+        <v>0.002931389750926909</v>
       </c>
       <c r="J17">
-        <v>0.003838804493697763</v>
+        <v>0.002931389750926909</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N17">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O17">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P17">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q17">
-        <v>59.42504769058134</v>
+        <v>52.069934728856</v>
       </c>
       <c r="R17">
-        <v>534.825429215232</v>
+        <v>468.6294125597039</v>
       </c>
       <c r="S17">
-        <v>0.0009182192675014043</v>
+        <v>0.0005177098754949724</v>
       </c>
       <c r="T17">
-        <v>0.0009182192675014044</v>
+        <v>0.0005177098754949724</v>
       </c>
     </row>
   </sheetData>
